--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -69,247 +78,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>75.409836065573771</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.188303057155508</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.409836065573771</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.707133362871062</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.011076650420918</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.321222862206469</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.656623836951709</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.96677004873726</v>
+        <v>87.844891871737502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.631369073992033</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>78.378378378378372</v>
+        <v>89.410887397464577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.302171023482501</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.409836065573771</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.257864421798843</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>76.295968099246792</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>77.802392556490915</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>77.447939743021706</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>76.561807709348699</v>
+        <v>84.936614466815811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>76.473194505981397</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>76.517501107665041</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>76.473194505981397</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.226406734603458</v>
+        <v>84.862043251304996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.871953921134249</v>
+        <v>84.56375838926175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.011076650420918</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.099689853788206</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.188746123172351</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.834293309703142</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>78.821444395214897</v>
+        <v>88.217747949291564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.321222862206469</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.232609658839166</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.365529463890127</v>
+        <v>85.160328113348243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>77.1821001329198</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>77.891005759858217</v>
+        <v>82.326621923937353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>80.416482055826322</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>77.1821001329198</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>76.739034116083289</v>
+        <v>82.252050708426552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.580859548072667</v>
+        <v>84.340044742729305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.454142667257415</v>
+        <v>86.502609992542872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.897208684093926</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.631369073992033</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.276916260522825</v>
+        <v>85.980611483967181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.365529463890127</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.124944616747896</v>
+        <v>86.428038777032071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>73.238812583074875</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>75.675675675675677</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -78,247 +81,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.533184190902318</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.041759880686044</v>
+        <v>75.188303057155508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.116331096196873</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.709172259507824</v>
+        <v>74.479397430217091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.24832214765101</v>
+        <v>72.707133362871062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.709172259507824</v>
+        <v>74.479397430217091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.994034302759133</v>
+        <v>75.011076650420918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>87.322893363161825</v>
+        <v>75.321222862206469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>87.994034302759133</v>
+        <v>74.656623836951709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.844891871737502</v>
+        <v>74.96677004873726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>89.858314690529454</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>89.410887397464577</v>
+        <v>78.378378378378372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>87.695749440715886</v>
+        <v>74.302171023482501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.770320656226701</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>87.770320656226701</v>
+        <v>74.257864421798843</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.24832214765101</v>
+        <v>76.295968099246792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>89.709172259507824</v>
+        <v>77.802392556490915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>89.709172259507824</v>
+        <v>77.447939743021706</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>84.936614466815811</v>
+        <v>76.561807709348699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.011185682326612</v>
+        <v>76.473194505981397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.011185682326612</v>
+        <v>76.517501107665041</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.892617449664428</v>
+        <v>76.473194505981397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>84.862043251304996</v>
+        <v>77.226406734603458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>84.56375838926175</v>
+        <v>76.871953921134249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.24832214765101</v>
+        <v>75.011076650420918</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>86.950037285607749</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>87.24832214765101</v>
+        <v>75.099689853788206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.994034302759133</v>
+        <v>82.188746123172351</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>87.994034302759133</v>
+        <v>81.834293309703142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.217747949291564</v>
+        <v>78.821444395214897</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>85.234899328859058</v>
+        <v>75.321222862206469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.234899328859058</v>
+        <v>75.232609658839166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.160328113348243</v>
+        <v>75.365529463890127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>82.401193139448168</v>
+        <v>77.1821001329198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>82.326621923937353</v>
+        <v>77.891005759858217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>85.533184190902318</v>
+        <v>80.416482055826322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>82.177479492915737</v>
+        <v>77.1821001329198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>82.252050708426552</v>
+        <v>76.739034116083289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.340044742729305</v>
+        <v>77.580859548072667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>86.950037285607749</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>86.502609992542872</v>
+        <v>75.454142667257415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.800894854586133</v>
+        <v>75.897208684093926</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>86.800894854586133</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.980611483967181</v>
+        <v>75.276916260522825</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.577181208053688</v>
+        <v>75.365529463890127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>86.428038777032071</v>
+        <v>74.124944616747896</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.401193139448168</v>
+        <v>73.238812583074875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>89.112602535421331</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -81,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -87,247 +90,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>75.409836065573771</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.188303057155508</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.409836065573771</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.707133362871062</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.011076650420918</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.321222862206469</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.656623836951709</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.96677004873726</v>
+        <v>87.844891871737502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.631369073992033</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>78.378378378378372</v>
+        <v>89.410887397464577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.302171023482501</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.409836065573771</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.257864421798843</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>76.295968099246792</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>77.802392556490915</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>77.447939743021706</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>76.561807709348699</v>
+        <v>84.936614466815811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>76.473194505981397</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>76.517501107665041</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>76.473194505981397</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.226406734603458</v>
+        <v>84.862043251304996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.871953921134249</v>
+        <v>84.56375838926175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.011076650420918</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.099689853788206</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.188746123172351</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.834293309703142</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>78.821444395214897</v>
+        <v>88.217747949291564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.321222862206469</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.232609658839166</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.365529463890127</v>
+        <v>85.160328113348243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>77.1821001329198</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>77.891005759858217</v>
+        <v>82.326621923937353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>80.416482055826322</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>77.1821001329198</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>76.739034116083289</v>
+        <v>82.252050708426552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.580859548072667</v>
+        <v>84.340044742729305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.454142667257415</v>
+        <v>86.502609992542872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.897208684093926</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.631369073992033</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.276916260522825</v>
+        <v>85.980611483967181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.365529463890127</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.124944616747896</v>
+        <v>86.428038777032071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>73.238812583074875</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>75.675675675675677</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -90,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -93,247 +123,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.533184190902318</v>
+        <v>86.227951153324284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.041759880686044</v>
+        <v>84.396200814111268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.116331096196873</v>
+        <v>84.871099050203526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.709172259507824</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.24832214765101</v>
+        <v>87.449118046132966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.709172259507824</v>
+        <v>89.620081411126179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.994034302759133</v>
+        <v>87.788331071913163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>87.322893363161825</v>
+        <v>87.856173677069208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>87.994034302759133</v>
+        <v>87.924016282225239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.844891871737502</v>
+        <v>87.924016282225239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>89.858314690529454</v>
+        <v>89.552238805970148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>89.410887397464577</v>
+        <v>89.687924016282224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>87.695749440715886</v>
+        <v>88.059701492537314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.770320656226701</v>
+        <v>88.12754409769336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>87.770320656226701</v>
+        <v>88.059701492537314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.24832214765101</v>
+        <v>87.652645861601087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>89.709172259507824</v>
+        <v>89.891451831750331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>89.709172259507824</v>
+        <v>89.891451831750331</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>84.936614466815811</v>
+        <v>85.413839891451843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.011185682326612</v>
+        <v>80.936227951153327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.011185682326612</v>
+        <v>85.61736770691995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.892617449664428</v>
+        <v>84.73541383989145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>84.862043251304996</v>
+        <v>85.278154681139753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>84.56375838926175</v>
+        <v>84.803256445047495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.24832214765101</v>
+        <v>87.584803256445042</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>86.950037285607749</v>
+        <v>87.652645861601087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>87.24832214765101</v>
+        <v>87.788331071913163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.994034302759133</v>
+        <v>88.534599728629587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>87.994034302759133</v>
+        <v>88.602442333785618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.217747949291564</v>
+        <v>88.805970149253739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>85.234899328859058</v>
+        <v>81.682496607869737</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.234899328859058</v>
+        <v>85.549525101763919</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.160328113348243</v>
+        <v>85.753052917232026</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>82.401193139448168</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>82.326621923937353</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>85.533184190902318</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>82.177479492915737</v>
+        <v>83.039348710990495</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>82.252050708426552</v>
+        <v>83.10719131614654</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.340044742729305</v>
+        <v>85.006784260515602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>86.950037285607749</v>
+        <v>87.584803256445042</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>86.502609992542872</v>
+        <v>87.042062415196739</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.800894854586133</v>
+        <v>87.24559023066486</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>86.800894854586133</v>
+        <v>86.770691994572587</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.980611483967181</v>
+        <v>86.499321573948436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.577181208053688</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>86.428038777032071</v>
+        <v>86.635006784260511</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.401193139448168</v>
+        <v>83.310719131614647</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>89.112602535421331</v>
+        <v>86.770691994572587</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_G.xlsx
+++ b/Thresholding/Results/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -123,247 +126,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.227951153324284</v>
+        <v>73.992673992674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.396200814111268</v>
+        <v>73.504273504273513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.871099050203526</v>
+        <v>73.544973544973544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>83.175033921302571</v>
+        <v>69.108669108669105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.449118046132966</v>
+        <v>71.794871794871796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.620081411126179</v>
+        <v>73.056573056573058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.788331071913163</v>
+        <v>73.748473748473756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>87.856173677069208</v>
+        <v>74.277574277574274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>87.924016282225239</v>
+        <v>73.341473341473346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.924016282225239</v>
+        <v>73.015873015873012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>89.552238805970148</v>
+        <v>74.155474155474153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>89.687924016282224</v>
+        <v>76.923076923076934</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.059701492537314</v>
+        <v>72.730972730972738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>88.12754409769336</v>
+        <v>73.504273504273513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.059701492537314</v>
+        <v>72.771672771672769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.652645861601087</v>
+        <v>75.091575091575095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>89.891451831750331</v>
+        <v>76.353276353276357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>89.891451831750331</v>
+        <v>76.109076109076113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.413839891451843</v>
+        <v>75.213675213675216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>80.936227951153327</v>
+        <v>72.527472527472526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.61736770691995</v>
+        <v>75.295075295075293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.73541383989145</v>
+        <v>75.986975986975992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>85.278154681139753</v>
+        <v>75.661375661375658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>84.803256445047495</v>
+        <v>75.905575905575901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.584803256445042</v>
+        <v>73.789173789173788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>87.652645861601087</v>
+        <v>73.789173789173788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>87.788331071913163</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>88.534599728629587</v>
+        <v>80.179080179080174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>88.602442333785618</v>
+        <v>79.527879527879534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.805970149253739</v>
+        <v>77.574277574277573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.682496607869737</v>
+        <v>71.550671550671552</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.549525101763919</v>
+        <v>74.033374033374031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.753052917232026</v>
+        <v>74.033374033374031</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.175033921302571</v>
+        <v>75.539275539275536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>83.175033921302571</v>
+        <v>75.661375661375658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>86.36363636363636</v>
+        <v>79.242979242979246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>83.039348710990495</v>
+        <v>75.579975579975581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>83.10719131614654</v>
+        <v>75.45787545787546</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>85.006784260515602</v>
+        <v>76.271876271876266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>87.584803256445042</v>
+        <v>74.643874643874639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.042062415196739</v>
+        <v>74.358974358974365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>87.24559023066486</v>
+        <v>74.765974765974761</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>86.770691994572587</v>
+        <v>73.951973951973955</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.499321573948436</v>
+        <v>74.236874236874243</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.36363636363636</v>
+        <v>73.300773300773301</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>86.635006784260511</v>
+        <v>72.85307285307286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>83.310719131614647</v>
+        <v>72.486772486772495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>86.770691994572587</v>
+        <v>73.015873015873012</v>
       </c>
     </row>
   </sheetData>
